--- a/xlsx/清教徒_intext.xlsx
+++ b/xlsx/清教徒_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>清教徒</t>
   </si>
@@ -29,7 +29,7 @@
     <t>新教</t>
   </si>
   <si>
-    <t>政策_政策_美國_清教徒</t>
+    <t>政策_政策_美国_清教徒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%BA%E9%86%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>大覺醒運動</t>
+    <t>大觉醒运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_Protestantism</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E6%95%99%E6%9C%83%E5%90%88%E4%B8%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>普世教會合一運動</t>
+    <t>普世教会合一运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%A9%E8%87%A8%E5%AE%89%E6%81%AF%E6%97%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>基督復臨安息日會</t>
+    <t>基督复临安息日会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E6%B4%97%E7%A4%BC%E6%B4%BE</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B8%E6%AD%A3%E5%AE%97</t>
   </si>
   <si>
-    <t>歸正宗</t>
+    <t>归正宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E5%AE%97</t>
   </si>
   <si>
-    <t>信義宗</t>
+    <t>信义宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E9%81%93%E5%AE%97</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%95%99%E6%B4%BE%E5%88%97%E8%A1%A8</t>
@@ -131,43 +131,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>福音主義</t>
+    <t>福音主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E6%81%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>靈恩派</t>
+    <t>灵恩派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%9D%88%E6%81%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>新靈恩運動</t>
+    <t>新灵恩运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%AE%97%E6%B4%BE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>非宗派教會</t>
+    <t>非宗派教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>家庭教會</t>
+    <t>家庭教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國教會</t>
+    <t>英国国教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%AC%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>羅馬公教會</t>
+    <t>罗马公教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>喀爾文主義</t>
+    <t>喀尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>瑪麗一世 (英格蘭)</t>
+    <t>玛丽一世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普利茅斯 (麻薩諸塞州)</t>
+    <t>普利茅斯 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8F%E8%A1%80%E7%97%85</t>
@@ -335,25 +335,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
   </si>
   <si>
-    <t>海灣</t>
+    <t>海湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84</t>
   </si>
   <si>
-    <t>地獄</t>
+    <t>地狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E7%B4%8D%E6%A3%AE%C2%B7%E6%84%9B%E5%BE%B7%E8%8F%AF%E8%8C%B2</t>
   </si>
   <si>
-    <t>喬納森·愛德華茲</t>
+    <t>乔纳森·爱德华兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%88</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
@@ -443,9 +443,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
   </si>
   <si>
-    <t>圣经</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
   </si>
   <si>
@@ -461,31 +458,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E9%A1%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>圓顱黨</t>
+    <t>圆颅党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2944,7 +2941,7 @@
         <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -2970,10 +2967,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2999,10 +2996,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3028,10 +3025,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3057,10 +3054,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3086,10 +3083,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3115,10 +3112,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3144,10 +3141,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
